--- a/data/trans_camb/P19C04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.025851650883474</v>
+        <v>-2.026462430985662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.081336874321573</v>
+        <v>-5.933374944648182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.855760442068012</v>
+        <v>-7.664833489104729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.257831268124066</v>
+        <v>1.098601498401136</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.064684881191156</v>
+        <v>-3.096943336107774</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.252415260826515</v>
+        <v>-6.968963538240764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6384805544799165</v>
+        <v>0.9031640050099374</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.376824223912129</v>
+        <v>-3.307107857768009</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.262762214416465</v>
+        <v>-6.43848301803867</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.724975711092386</v>
+        <v>7.657847520560389</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.194725545804661</v>
+        <v>3.268791341541018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.197484083877394</v>
+        <v>3.294014574490026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.735628010819319</v>
+        <v>9.912542568635301</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.040521180626214</v>
+        <v>4.991305134422126</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2889888651207906</v>
+        <v>0.9312333311518598</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.266860252389925</v>
+        <v>7.372808397751829</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.510720678174555</v>
+        <v>2.778660006593732</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9339934911243458</v>
+        <v>0.804633874526647</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1100494707739028</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4361684526983658</v>
+        <v>-0.436168452698366</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4452203066921904</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1563435929329318</v>
+        <v>-0.1453049487568169</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4724372803783692</v>
+        <v>-0.4650327242565961</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6311997957240816</v>
+        <v>-0.6444906462513081</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1438953675914067</v>
+        <v>0.09613848643463842</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3443857229543468</v>
+        <v>-0.3331457891123672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7656606200314319</v>
+        <v>-0.7355061147966683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06540627414061757</v>
+        <v>0.07623803824302069</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3310779905724272</v>
+        <v>-0.313126377631577</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6124775399573769</v>
+        <v>-0.6170345374679439</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8874039893002268</v>
+        <v>0.8721144210457596</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3791066061342639</v>
+        <v>0.3881754224023943</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4279576461247692</v>
+        <v>0.4043507482865987</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.692286536811987</v>
+        <v>1.76779128943222</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8852859141380434</v>
+        <v>0.9191405131757754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0878419784591033</v>
+        <v>0.2130580766836936</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9304191481235934</v>
+        <v>0.963474852148517</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3170322428164797</v>
+        <v>0.3670582304623011</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1500108247975958</v>
+        <v>0.1078730830418043</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.2826858976268332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.219922859863229</v>
+        <v>-2.21992285986323</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9198267410041803</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2306071774081858</v>
+        <v>-0.1626058266677183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.152942096714152</v>
+        <v>-3.985525577513858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.804946733749831</v>
+        <v>-6.983225452148583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.100999277833167</v>
+        <v>-2.928776071923176</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.699483520207608</v>
+        <v>-2.641490023563889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.809053783255757</v>
+        <v>-5.353985640772827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2498672984288215</v>
+        <v>-0.2281576169359329</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.319535230744458</v>
+        <v>-2.313577926219066</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.445567773721907</v>
+        <v>-5.05465112069149</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.49470126465334</v>
+        <v>8.595821228400292</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.293380910443382</v>
+        <v>4.641309978006929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.910126930801542</v>
+        <v>2.922611679516665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.633900458185028</v>
+        <v>4.974768482781445</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.124028148029569</v>
+        <v>5.362857271800045</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.142598557039036</v>
+        <v>2.171086927659267</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.708068219739525</v>
+        <v>5.60199503539181</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.700773158350751</v>
+        <v>3.649632191846021</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8706167264800786</v>
+        <v>1.629547468649834</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01511083748186338</v>
+        <v>-0.0182450277535844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2650403213269515</v>
+        <v>-0.2509400048830448</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4376431974859001</v>
+        <v>-0.4445701491066361</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2483102063501143</v>
+        <v>-0.236519369467481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2061023414510903</v>
+        <v>-0.2073002677859899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4573725876116445</v>
+        <v>-0.4345251547199427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02827124943211252</v>
+        <v>-0.01385143098096048</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1666523535782767</v>
+        <v>-0.1643311103455481</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4107062184073063</v>
+        <v>-0.3797871175440966</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7030433519327872</v>
+        <v>0.7280158387070671</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3488160971289986</v>
+        <v>0.3745337620516171</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2454449735958334</v>
+        <v>0.2596745589396753</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.510865183334992</v>
+        <v>0.5346019966618801</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5726035220246356</v>
+        <v>0.6108010640695968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2457618296253695</v>
+        <v>0.225309906353003</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5013599011967734</v>
+        <v>0.5289786011426584</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3418167743459103</v>
+        <v>0.335607990069236</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07348393507406913</v>
+        <v>0.1426876846307324</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.410768407880833</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.889305592950418</v>
+        <v>-3.889305592950419</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.934153438582104</v>
@@ -1092,7 +1092,7 @@
         <v>-3.131730659791566</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.084690272104244</v>
+        <v>-4.084690272104242</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7981407639862704</v>
+        <v>-0.8460306876898699</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.22333425012541</v>
+        <v>-8.454070857673086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.126440677549983</v>
+        <v>-9.816631979437275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.470694530464943</v>
+        <v>-2.368676367303889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.960775147166603</v>
+        <v>-6.283463607749172</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.543679080686212</v>
+        <v>-7.506760959308041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2640880775798665</v>
+        <v>0.02256986243254534</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.221333594740998</v>
+        <v>-5.984024985293485</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.914078383853492</v>
+        <v>-7.000716139108001</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.564222346699104</v>
+        <v>9.29553067717341</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6244232040732022</v>
+        <v>0.6728298104134066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.07574388126218126</v>
+        <v>-0.5168702630339554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.28160446560084</v>
+        <v>5.929248006756</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.614197669942863</v>
+        <v>1.476261793485685</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.672423098630234</v>
+        <v>-0.6924481453788507</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.975582566621716</v>
+        <v>6.249247567467052</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2623197127034594</v>
+        <v>-0.2803943572841668</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.242657352664118</v>
+        <v>-1.455766391944004</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1868621274695244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3014656717343875</v>
+        <v>-0.3014656717343877</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1901496554181623</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2029537712620877</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2647109171311348</v>
+        <v>-0.2647109171311346</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03516315196792183</v>
+        <v>-0.04666618869489686</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3970212727703952</v>
+        <v>-0.4105642249612116</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4400739971737149</v>
+        <v>-0.4556711840528958</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1707694123185516</v>
+        <v>-0.1578260111762162</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3967470757139428</v>
+        <v>-0.420591763479031</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.498525933185564</v>
+        <v>-0.491257964683695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01585318732721049</v>
+        <v>-0.001872721682307692</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3655922067616683</v>
+        <v>-0.3589278814199811</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4055696367588723</v>
+        <v>-0.410567186848178</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5965340520089611</v>
+        <v>0.578432873993481</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04211340896349384</v>
+        <v>0.0488042905262901</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01054244804000473</v>
+        <v>-0.03071300159132652</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4776046701946086</v>
+        <v>0.5354701370205344</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1533953594874072</v>
+        <v>0.1471198812768138</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05977491004453397</v>
+        <v>-0.05896798964381341</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4288812848961431</v>
+        <v>0.4347810681402681</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.01669186816565833</v>
+        <v>-0.01896214711141998</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08780828116515822</v>
+        <v>-0.09755240206057708</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-8.786803221422023</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-11.27308300308706</v>
+        <v>-11.27308300308705</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.842948504360674</v>
+        <v>-8.547459707954767</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.48347364708448</v>
+        <v>-15.1870815304719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.95617036137602</v>
+        <v>-18.04705564809591</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.883366540093226</v>
+        <v>-6.997454944880772</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.35251943994121</v>
+        <v>-12.89191493494581</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.89667009445233</v>
+        <v>-14.55486687821428</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.159468175566888</v>
+        <v>-6.154237044341293</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-12.99369404619175</v>
+        <v>-12.3662305504543</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.10945325447695</v>
+        <v>-14.84310018304038</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.139372231850031</v>
+        <v>2.718018076961023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.187405963513189</v>
+        <v>-4.023537987317916</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.794699738592201</v>
+        <v>-7.323104779036832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.573753644411292</v>
+        <v>3.098698820269052</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-4.020389848934772</v>
+        <v>-3.300300331944837</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-6.597098200004798</v>
+        <v>-6.487275380770012</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.497943919255501</v>
+        <v>1.768906046106039</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.993292599359036</v>
+        <v>-5.016776960915352</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.213832692252062</v>
+        <v>-7.893519195212592</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3720855522709466</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4773694379286485</v>
+        <v>-0.4773694379286483</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2845742907342908</v>
+        <v>-0.2776066534178165</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5097089494397969</v>
+        <v>-0.4909527177406381</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.582455855980976</v>
+        <v>-0.5737722795868754</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3015367317395526</v>
+        <v>-0.2976040306051096</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5673524493415293</v>
+        <v>-0.5692013157274443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6285569147365294</v>
+        <v>-0.6263799060856942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.237181042982351</v>
+        <v>-0.2433466247689005</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4887648815815725</v>
+        <v>-0.4784071722433088</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5743598648580831</v>
+        <v>-0.5633418396294424</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1342551401347838</v>
+        <v>0.1115788327282676</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1753493786214999</v>
+        <v>-0.1585101496222811</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2870435254893219</v>
+        <v>-0.3054127783153092</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2143222541040344</v>
+        <v>0.1698450442926524</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.22901895647403</v>
+        <v>-0.1841934081084372</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3682458900673394</v>
+        <v>-0.375188585138944</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06914911124336104</v>
+        <v>0.0825987390938492</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2285626888235529</v>
+        <v>-0.2322872003214127</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3766524099617635</v>
+        <v>-0.3740458503370101</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-3.347751622602813</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.836649687246265</v>
+        <v>-5.836649687246262</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.531111051678386</v>
+        <v>-2.245449422527745</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.904234878894658</v>
+        <v>-7.053280860779489</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.68286070920206</v>
+        <v>-11.72681233819662</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.964348825868275</v>
+        <v>-4.000015196007825</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.84216391951052</v>
+        <v>-12.73769824186807</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.48712467080168</v>
+        <v>-11.74782896884183</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.9974025916440239</v>
+        <v>-0.8703885669887991</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.299853975373482</v>
+        <v>-7.769068813117181</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.816717454884106</v>
+        <v>-10.10034835793578</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.35228605976255</v>
+        <v>12.21057285119397</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.527733386394217</v>
+        <v>7.256688701078247</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1504095457906229</v>
+        <v>0.04103641384886603</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.084541243125674</v>
+        <v>8.682950143660422</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.781186132845167</v>
+        <v>-1.525779613204286</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.600134207012551</v>
+        <v>-1.874450213818413</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.405758199942753</v>
+        <v>8.842984923116193</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.028921197415422</v>
+        <v>1.000255238249155</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.762472589485919</v>
+        <v>-2.154021976947461</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.1454191292781364</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2535315074422886</v>
+        <v>-0.2535315074422885</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0826902086630439</v>
+        <v>-0.07001614913504911</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2302954992228359</v>
+        <v>-0.2327356233574413</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3907700944556808</v>
+        <v>-0.3846642577547352</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1807874356132374</v>
+        <v>-0.1681550671165077</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5454364520200875</v>
+        <v>-0.5513121711790943</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4819041495685826</v>
+        <v>-0.4785655433638846</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.03969145166589562</v>
+        <v>-0.0382513396795572</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3231474952633405</v>
+        <v>-0.3057836649914908</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3732471974462235</v>
+        <v>-0.3845550534493704</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.535042607564818</v>
+        <v>0.5354688972227611</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3328573449740184</v>
+        <v>0.3253316760561588</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.006248650266781457</v>
+        <v>0.009123584128669881</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.459453698845515</v>
+        <v>0.4954503209645534</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.09801678869646704</v>
+        <v>-0.08909744823222922</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.110859008325181</v>
+        <v>-0.1131424780300252</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.40387138859111</v>
+        <v>0.427354214263456</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0516949078953744</v>
+        <v>0.04910748153632621</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.08768423231703426</v>
+        <v>-0.1050010827145685</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-2.524974697368681</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.619729885451934</v>
+        <v>-6.619729885451927</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.88261572021352</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3507543864773742</v>
+        <v>-0.05458234784785876</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.14711687067546</v>
+        <v>-11.51281860572887</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-14.64195124842379</v>
+        <v>-13.60583518132311</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.638627879122095</v>
+        <v>-3.453571189777085</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.49442637761142</v>
+        <v>-8.471471867434648</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.892058670795718</v>
+        <v>-10.01818092742859</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.9077358435200917</v>
+        <v>1.015484579244777</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.779313135505456</v>
+        <v>-8.05434034282419</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.597118567715304</v>
+        <v>-9.211986864742814</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.11686616914132</v>
+        <v>18.19637391450958</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.603222334514738</v>
+        <v>5.626176409288134</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.09195365657349411</v>
+        <v>0.1477510679032801</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.04159905994409</v>
+        <v>10.54773511383054</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.98128835764855</v>
+        <v>5.61545070160297</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.179094287715413</v>
+        <v>1.106212496792212</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.9843654286273</v>
+        <v>12.51742513574323</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.69675975596936</v>
+        <v>2.61559177053029</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.9118105648846062</v>
+        <v>-0.6054330199487431</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.08574256665378471</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2247914133654134</v>
+        <v>-0.2247914133654133</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1948176026010447</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.01146273927086422</v>
+        <v>-0.004495800199796627</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3291670363629902</v>
+        <v>-0.335267285657727</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4059952289283972</v>
+        <v>-0.3992828012948558</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.113232779994002</v>
+        <v>-0.1446879683924282</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3817536265204508</v>
+        <v>-0.3697304759501064</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4143487416696694</v>
+        <v>-0.4071618270422496</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03423854496041854</v>
+        <v>0.03901685431646311</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2871436570476151</v>
+        <v>-0.3024663073264734</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3471945570238315</v>
+        <v>-0.3393512515241023</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7230930658613628</v>
+        <v>0.7227907940946443</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2087246736234223</v>
+        <v>0.2343564773084742</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.00179553604348161</v>
+        <v>0.008906476628802186</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6523380816462597</v>
+        <v>0.6384733486091723</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2242870953292883</v>
+        <v>0.342996385714541</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07618139035008292</v>
+        <v>0.07083067130961625</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5687321779123193</v>
+        <v>0.5967010147850215</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1719922941542701</v>
+        <v>0.119720112098637</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.0428075646345587</v>
+        <v>-0.03092846322011261</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.885500840970121</v>
+        <v>4.260027652961434</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.098795401238633</v>
+        <v>-6.62430943616825</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.27354593536359</v>
+        <v>-7.76374256964834</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.515333048072969</v>
+        <v>2.111579214714596</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9856615779285812</v>
+        <v>0.2203404359520478</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.187670859962263</v>
+        <v>-4.846548283934839</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.852204421966998</v>
+        <v>6.420351164524117</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.06639620524433788</v>
+        <v>-0.3728882938623509</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.650921697539058</v>
+        <v>-4.096246536042537</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.49784010105108</v>
+        <v>26.40602535346031</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.55934859697902</v>
+        <v>13.38131336368692</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.225282586246648</v>
+        <v>8.609525169804892</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.63194367830401</v>
+        <v>17.38641080504062</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>16.90011869787694</v>
+        <v>17.28202989340575</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.554430531428548</v>
+        <v>7.400915379778414</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>18.09138711965804</v>
+        <v>18.50413324949231</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.2054851080529</v>
+        <v>13.42672491489424</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.970962733026078</v>
+        <v>6.446409493916429</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1260982614080694</v>
+        <v>0.1288265745462752</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2484413204168079</v>
+        <v>-0.2324802938619851</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.305728443410887</v>
+        <v>-0.2550250089738765</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1056173529868384</v>
+        <v>0.09990188811660264</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.06293223728518894</v>
+        <v>0.00889900409700148</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1950464776080109</v>
+        <v>-0.2186601315887617</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2393063547970221</v>
+        <v>0.2658402230908604</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.006525887582668853</v>
+        <v>-0.02081778418138884</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1561903247455801</v>
+        <v>-0.1742190858946857</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.354408805713237</v>
+        <v>1.462149095803552</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6995425700743095</v>
+        <v>0.6942391940125636</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4597468624779295</v>
+        <v>0.516579420037479</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.438683057504431</v>
+        <v>1.450544068054844</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.252064901820622</v>
+        <v>1.338781680502388</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6193891343291954</v>
+        <v>0.5801709195303311</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.100925419821825</v>
+        <v>1.112567617395871</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7871703989093971</v>
+        <v>0.7907908425043765</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3669370315754791</v>
+        <v>0.3966518280618581</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-2.093417620916751</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.581397609873749</v>
+        <v>-3.581397609873746</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.859110675924617</v>
@@ -2153,7 +2153,7 @@
         <v>-1.661376241236531</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.181817647550869</v>
+        <v>-3.18181764755087</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.818526200981129</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.441837664380575</v>
+        <v>2.526283798424032</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.196270178036466</v>
+        <v>-4.239578332941632</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.656659695572927</v>
+        <v>-5.649228821145976</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.8300133387835645</v>
+        <v>0.9323184346433816</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.626891876020676</v>
+        <v>-3.381292894898273</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.859826133827525</v>
+        <v>-4.832171335167642</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.450765240444357</v>
+        <v>2.258969985263638</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.202769805933356</v>
+        <v>-3.20028011311105</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.615165249552811</v>
+        <v>-4.643120880567579</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.987389910459092</v>
+        <v>7.04373214739018</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.1145138160191904</v>
+        <v>0.284727641661327</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.545697884628664</v>
+        <v>-1.267650113236189</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.897305571107363</v>
+        <v>4.707446834652216</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.1747080536926164</v>
+        <v>0.1306963203496677</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.655397088482176</v>
+        <v>-1.569512170775431</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.408143647270076</v>
+        <v>5.22333300499288</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.3470880871527883</v>
+        <v>-0.4949640655596172</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.068966881775086</v>
+        <v>-2.140419329854997</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1049392961046667</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.179529082250919</v>
+        <v>-0.1795290822509189</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1946690721652251</v>
@@ -2258,7 +2258,7 @@
         <v>-0.1131185910787708</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2166413124414488</v>
+        <v>-0.2166413124414489</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2223561497077017</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1136020457940066</v>
+        <v>0.1195050484597701</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1960247230186909</v>
+        <v>-0.2022811622549323</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2677131077173472</v>
+        <v>-0.2659235311998909</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.05121673589290109</v>
+        <v>0.05913733016580972</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2285764833394494</v>
+        <v>-0.2173796798696364</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3054375841108202</v>
+        <v>-0.3030730398200419</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1400280046402493</v>
+        <v>0.1270862712442341</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1776058188176548</v>
+        <v>-0.1796200079600967</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2574898488516553</v>
+        <v>-0.2587277149653288</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3694990074054292</v>
+        <v>0.380711657392839</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.007336043627512865</v>
+        <v>0.01367798984183652</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.08344099432221824</v>
+        <v>-0.06813059638238793</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3539136197046651</v>
+        <v>0.3423562259006121</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01524725373676152</v>
+        <v>0.009889435073494582</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1209342677450748</v>
+        <v>-0.1111817968700364</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3362245118551864</v>
+        <v>0.3196311344162525</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.02150115055390918</v>
+        <v>-0.02706880727059171</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1272401069327515</v>
+        <v>-0.1301842705002764</v>
       </c>
     </row>
     <row r="52">
